--- a/orangeHRM.xlsx
+++ b/orangeHRM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SBPInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F24BC-B029-41A6-B383-19290F08ED5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6865904-D2C2-4AA2-ACD5-9FF3E5F96BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/orangeHRM.xlsx
+++ b/orangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SBPInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6865904-D2C2-4AA2-ACD5-9FF3E5F96BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5118109-0E20-45A8-AD7F-BDCB7A9C7E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,27 +397,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +419,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,7 +805,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +946,7 @@
       <c r="G7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -974,7 +972,7 @@
       <c r="G8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1000,7 +998,7 @@
       <c r="G9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1026,7 +1024,7 @@
       <c r="G10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1052,7 +1050,7 @@
       <c r="G11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1078,7 +1076,7 @@
       <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1104,7 +1102,7 @@
       <c r="G13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1130,7 +1128,7 @@
       <c r="G14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1156,7 +1154,7 @@
       <c r="G15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1182,7 +1180,7 @@
       <c r="G16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1208,7 +1206,7 @@
       <c r="G17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1234,7 +1232,7 @@
       <c r="G18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1260,7 +1258,7 @@
       <c r="G19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1286,7 +1284,7 @@
       <c r="G20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>19</v>
       </c>
     </row>
